--- a/水泥.excel/1104/1104(102.1~105.12)EPM.xlsx
+++ b/水泥.excel/1104/1104(102.1~105.12)EPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>營業收入淨額_x</t>
   </si>
@@ -163,283 +163,7 @@
     <t>本月</t>
   </si>
   <si>
-    <t>486,481</t>
-  </si>
-  <si>
-    <t>299,860</t>
-  </si>
-  <si>
-    <t>461,732</t>
-  </si>
-  <si>
-    <t>394,631</t>
-  </si>
-  <si>
-    <t>406,677</t>
-  </si>
-  <si>
-    <t>415,968</t>
-  </si>
-  <si>
-    <t>453,397</t>
-  </si>
-  <si>
-    <t>393,203</t>
-  </si>
-  <si>
-    <t>448,691</t>
-  </si>
-  <si>
-    <t>521,445</t>
-  </si>
-  <si>
-    <t>477,826</t>
-  </si>
-  <si>
-    <t>516,301</t>
-  </si>
-  <si>
-    <t>512,332</t>
-  </si>
-  <si>
-    <t>334,711</t>
-  </si>
-  <si>
-    <t>532,118</t>
-  </si>
-  <si>
-    <t>499,672</t>
-  </si>
-  <si>
-    <t>477,012</t>
-  </si>
-  <si>
-    <t>479,702</t>
-  </si>
-  <si>
-    <t>491,532</t>
-  </si>
-  <si>
-    <t>452,066</t>
-  </si>
-  <si>
-    <t>463,181</t>
-  </si>
-  <si>
-    <t>540,324</t>
-  </si>
-  <si>
-    <t>484,997</t>
-  </si>
-  <si>
-    <t>552,257</t>
-  </si>
-  <si>
-    <t>520,536</t>
-  </si>
-  <si>
-    <t>335,531</t>
-  </si>
-  <si>
-    <t>471,332</t>
-  </si>
-  <si>
-    <t>447,811</t>
-  </si>
-  <si>
-    <t>371,720</t>
-  </si>
-  <si>
-    <t>411,286</t>
-  </si>
-  <si>
-    <t>412,816</t>
-  </si>
-  <si>
-    <t>376,087</t>
-  </si>
-  <si>
-    <t>423,675</t>
-  </si>
-  <si>
-    <t>461,991</t>
-  </si>
-  <si>
-    <t>453,342</t>
-  </si>
-  <si>
-    <t>477,626</t>
-  </si>
-  <si>
-    <t>373,311</t>
-  </si>
-  <si>
-    <t>298,112</t>
-  </si>
-  <si>
-    <t>434,381</t>
-  </si>
-  <si>
-    <t>427,717</t>
-  </si>
-  <si>
-    <t>421,157</t>
-  </si>
-  <si>
-    <t>370,788</t>
-  </si>
-  <si>
-    <t>354,764</t>
-  </si>
-  <si>
-    <t>388,895</t>
-  </si>
-  <si>
-    <t>293,590</t>
-  </si>
-  <si>
-    <t>385,127</t>
-  </si>
-  <si>
-    <t>410,515</t>
-  </si>
-  <si>
-    <t>463,842</t>
-  </si>
-  <si>
     <t>本年累計</t>
-  </si>
-  <si>
-    <t>786,340</t>
-  </si>
-  <si>
-    <t>1,248,073</t>
-  </si>
-  <si>
-    <t>1,642,704</t>
-  </si>
-  <si>
-    <t>2,049,381</t>
-  </si>
-  <si>
-    <t>2,465,349</t>
-  </si>
-  <si>
-    <t>2,918,747</t>
-  </si>
-  <si>
-    <t>3,311,949</t>
-  </si>
-  <si>
-    <t>3,760,641</t>
-  </si>
-  <si>
-    <t>4,282,086</t>
-  </si>
-  <si>
-    <t>4,759,912</t>
-  </si>
-  <si>
-    <t>5,276,212</t>
-  </si>
-  <si>
-    <t>847,043</t>
-  </si>
-  <si>
-    <t>1,379,161</t>
-  </si>
-  <si>
-    <t>1,878,833</t>
-  </si>
-  <si>
-    <t>2,355,845</t>
-  </si>
-  <si>
-    <t>2,835,547</t>
-  </si>
-  <si>
-    <t>3,327,078</t>
-  </si>
-  <si>
-    <t>3,779,145</t>
-  </si>
-  <si>
-    <t>4,242,326</t>
-  </si>
-  <si>
-    <t>4,782,650</t>
-  </si>
-  <si>
-    <t>5,267,647</t>
-  </si>
-  <si>
-    <t>5,819,905</t>
-  </si>
-  <si>
-    <t>856,067</t>
-  </si>
-  <si>
-    <t>1,327,398</t>
-  </si>
-  <si>
-    <t>1,775,209</t>
-  </si>
-  <si>
-    <t>2,146,929</t>
-  </si>
-  <si>
-    <t>2,558,215</t>
-  </si>
-  <si>
-    <t>2,971,031</t>
-  </si>
-  <si>
-    <t>3,347,118</t>
-  </si>
-  <si>
-    <t>3,770,793</t>
-  </si>
-  <si>
-    <t>4,232,784</t>
-  </si>
-  <si>
-    <t>4,686,126</t>
-  </si>
-  <si>
-    <t>5,163,751</t>
-  </si>
-  <si>
-    <t>671,423</t>
-  </si>
-  <si>
-    <t>1,105,804</t>
-  </si>
-  <si>
-    <t>1,533,521</t>
-  </si>
-  <si>
-    <t>1,954,678</t>
-  </si>
-  <si>
-    <t>2,325,466</t>
-  </si>
-  <si>
-    <t>2,680,230</t>
-  </si>
-  <si>
-    <t>3,069,125</t>
-  </si>
-  <si>
-    <t>3,362,715</t>
-  </si>
-  <si>
-    <t>3,747,842</t>
-  </si>
-  <si>
-    <t>4,158,357</t>
-  </si>
-  <si>
-    <t>4,622,199</t>
   </si>
 </sst>
 </file>
@@ -946,298 +670,298 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>96</v>
+      <c r="B2" t="n">
+        <v>486481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>299860</v>
+      </c>
+      <c r="D2" t="n">
+        <v>461732</v>
+      </c>
+      <c r="E2" t="n">
+        <v>394631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>406677</v>
+      </c>
+      <c r="G2" t="n">
+        <v>415968</v>
+      </c>
+      <c r="H2" t="n">
+        <v>453397</v>
+      </c>
+      <c r="I2" t="n">
+        <v>393203</v>
+      </c>
+      <c r="J2" t="n">
+        <v>448691</v>
+      </c>
+      <c r="K2" t="n">
+        <v>521445</v>
+      </c>
+      <c r="L2" t="n">
+        <v>477826</v>
+      </c>
+      <c r="M2" t="n">
+        <v>516301</v>
+      </c>
+      <c r="N2" t="n">
+        <v>512332</v>
+      </c>
+      <c r="O2" t="n">
+        <v>334711</v>
+      </c>
+      <c r="P2" t="n">
+        <v>532118</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>499672</v>
+      </c>
+      <c r="R2" t="n">
+        <v>477012</v>
+      </c>
+      <c r="S2" t="n">
+        <v>479702</v>
+      </c>
+      <c r="T2" t="n">
+        <v>491532</v>
+      </c>
+      <c r="U2" t="n">
+        <v>452066</v>
+      </c>
+      <c r="V2" t="n">
+        <v>463181</v>
+      </c>
+      <c r="W2" t="n">
+        <v>540324</v>
+      </c>
+      <c r="X2" t="n">
+        <v>484997</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>552257</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>520536</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>335531</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>471332</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>447811</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>371720</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>411286</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>412816</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>376087</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>423675</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>461991</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>453342</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>477626</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>373311</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>298112</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>434381</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>427717</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>421157</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>370788</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>354764</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>388895</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>293590</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>385127</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>410515</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>463842</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>141</v>
+      <c r="B3" t="n">
+        <v>486481</v>
+      </c>
+      <c r="C3" t="n">
+        <v>786340</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1248073</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1642704</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2049381</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2465349</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2918747</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3311949</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3760641</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4282086</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4759912</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5276212</v>
+      </c>
+      <c r="N3" t="n">
+        <v>512332</v>
+      </c>
+      <c r="O3" t="n">
+        <v>847043</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1379161</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1878833</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2355845</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2835547</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3327078</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3779145</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4242326</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4782650</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5267647</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5819905</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>520536</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>856067</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1327398</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1775209</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2146929</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2558215</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2971031</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3347118</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3770793</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4232784</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4686126</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5163751</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>373311</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>671423</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1105804</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1533521</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1954678</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2325466</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2680230</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3069125</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3362715</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3747842</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4158357</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4622199</v>
       </c>
     </row>
   </sheetData>
